--- a/ParameterFile.xlsx
+++ b/ParameterFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tushar.khushal.lakhe\Desktop\SmartAPIautomationframework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tushar.khushal.lakhe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65404CD-72A8-4FF1-8A33-D653EA4929FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADDA43D-607B-4B32-98C6-D1D47D432BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{48B63BE7-CEF8-4441-8FC9-AD164F5F8ED7}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">rest_api!$A$1:$I$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6565" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6565" uniqueCount="1161">
   <si>
     <t>url</t>
   </si>
@@ -3550,6 +3549,9 @@
   </si>
   <si>
     <t>{'client_id': 'ea3de08abe424c47a5cb157366741538','client_secret': '7cFf22441B4441FE91E6F31cFA0bE6F3', 'Accept':'*/*'}</t>
+  </si>
+  <si>
+    <t>Api</t>
   </si>
   <si>
     <t>Both</t>
@@ -4060,8 +4062,8 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4125,14 +4127,14 @@
         <v>1158</v>
       </c>
       <c r="F2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -4252,10 +4254,16 @@
         <v>201</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>1160</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>18</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -4321,17 +4329,21 @@
         <v>1145</v>
       </c>
       <c r="D10" s="5">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>12</v>
+        <v>1159</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>1147</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="5">
+        <v>20</v>
+      </c>
+      <c r="I10" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
